--- a/試験設計書/試験項目書_ログイン画面.xlsx
+++ b/試験設計書/試験項目書_ログイン画面.xlsx
@@ -3,20 +3,33 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB41D97-2489-453C-8B5C-80A3CD70A4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557E2F8C-8FE4-48F9-9044-C385C75A03A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体試験項目書" sheetId="8" r:id="rId1"/>
     <sheet name="結合試験項目書" sheetId="10" r:id="rId2"/>
+    <sheet name="試験結果" sheetId="11" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -230,20 +243,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザ登録リンク</t>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①ユーザ登録リンクをクリック</t>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>①ユーザ登録画面に遷移すること</t>
     <rPh sb="4" eb="8">
       <t>トウロクガメン</t>
@@ -301,31 +300,6 @@
     <rPh sb="28" eb="30">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-エラーメッセージは「入力が間違っています」</t>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>マチガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラーメッセージは「入力が間違っています」</t>
-    <rPh sb="10" eb="12">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>マチガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラーメッセージは「入力が間違っています」</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -498,12 +472,127 @@
     <t>①ブラウザでlocalhost:8080/Loginにアクセスする。</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>試験結果</t>
+  </si>
+  <si>
+    <t>試験結果</t>
+    <rPh sb="0" eb="4">
+      <t>シケンケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク先</t>
+    <rPh sb="3" eb="4">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザIDにdddd、パスワードにddddを入力する。</t>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+エラーメッセージは「入力が間違っています」
+パスワードにはddddを設定</t>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージは「入力が間違っています」
+ユーザIDにはddddを設定</t>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>マチガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージは「入力が間違っています」
+ユーザIDにqwer123、パスワードにddddを設定</t>
+    <rPh sb="47" eb="49">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージは「入力が間違っています」
+ユーザIDにdddd、パスワードにqwer123を設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試験結果</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンソール表示</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録リンク</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①アカウント登録リンクをクリック</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザID、パスワードをddddに設定</t>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージは「入力が間違っています」
+パスワードにddddを設定</t>
+    <rPh sb="33" eb="35">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージは「入力が間違っています」
+ユーザIDにddddを設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,6 +630,22 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="游ゴシック Medium"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -556,7 +661,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -785,13 +890,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -866,6 +1066,45 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -892,8 +1131,31 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -907,6 +1169,1255 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>68578</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>141239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9555479</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>3951394</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="図 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B6DC7DF-D64A-4A2C-AEDA-4DCF136BCE41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect b="38193"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="449578" y="966739"/>
+          <a:ext cx="9486901" cy="3810155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>121919</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>282605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9555479</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3712131</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="図 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4668BFA6-4BCB-70AD-6283-529B3289FD40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect b="39169"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="508606" y="5627978"/>
+          <a:ext cx="9433560" cy="3429526"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1485436</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>297321</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7979060</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>3773437</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="図 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA71F48C-EC7C-0EAD-3D39-4D609FE92A56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866436" y="9293154"/>
+          <a:ext cx="6493624" cy="3476116"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>211667</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>310221</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9376834</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>3661828</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="図 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{566983AA-F752-36EA-3004-280C001ADA26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect b="34988"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="592667" y="13391221"/>
+          <a:ext cx="9165167" cy="3351607"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>235528</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>112568</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9437499</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3416295</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="図 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24FD2C43-356E-98FB-E5FF-9C9843FD4476}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect b="36106"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="623455" y="21296168"/>
+          <a:ext cx="9201971" cy="3303727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>167528</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>304809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9403082</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>3735960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="図 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{177A1079-D5E2-454F-BCC2-31C77F7BC2DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect b="32865"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="555455" y="17415173"/>
+          <a:ext cx="9235554" cy="3431151"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>225255</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>355600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9460809</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>3786751</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="図 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F480564-525C-4447-A20F-0FEC3E597643}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect b="32865"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="606255" y="25704800"/>
+          <a:ext cx="9235554" cy="3431151"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>619805</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>588352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8976784</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>3433002</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="図 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{693FEC7A-4859-F0A1-EB24-5AC7B92C64C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect t="1" b="39350"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000805" y="29944402"/>
+          <a:ext cx="8356979" cy="2844650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>170986</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>342703</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9406540</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>3773854</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="図 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CBD431C-5A62-4877-AF3F-C67E7E6BDC63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect b="32865"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="551986" y="33775453"/>
+          <a:ext cx="9235554" cy="3431151"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>426026</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>320391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9205028</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>3751542</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="図 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5866B10F-4968-4099-A486-B9CFCC0980F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:srcRect b="30441"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="807026" y="37829841"/>
+          <a:ext cx="8779002" cy="3431151"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9426054</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>3716901</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="図 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62ADEC7D-DADF-43C5-9762-1F86AFB6109B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect b="32865"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="41871900"/>
+          <a:ext cx="9235554" cy="3431151"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9544051</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>3962555</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="図 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FAA05B9-FD0A-47DF-9DAE-AE7133BC13F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect b="38193"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="438150" y="45815250"/>
+          <a:ext cx="9486901" cy="3810155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8793769</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3755001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="図 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53DC042C-2B15-425F-90F5-654A533551A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:srcRect r="535" b="24639"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123950" y="50063400"/>
+          <a:ext cx="8050819" cy="3431151"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1413167</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>228529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>881499</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>3852689</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="図 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36161110-EAFB-E168-D0B7-B70291D7CBC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:srcRect l="66671" t="1" b="63122"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11416149" y="1503147"/>
+          <a:ext cx="5827568" cy="3624160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>183003</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1809750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3901762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="図 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3287865-44AF-33B8-D2F0-A2C7DDE428FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:srcRect l="66671" t="2746" b="68265"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10553700" y="5078853"/>
+          <a:ext cx="7600950" cy="3718759"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1653875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>407205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>646997</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>3716470</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="図 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC844CDD-81DA-1AAC-9E57-60A026BA4FAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:srcRect l="65242" b="61795"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11656857" y="13901532"/>
+          <a:ext cx="5352358" cy="3309265"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1368125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>298455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>932528</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3714750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="図 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73648F10-DC0B-F720-CE20-E7FB220CF7AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:srcRect l="67595" b="66795"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11350325" y="21958305"/>
+          <a:ext cx="5927103" cy="3416295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1254044</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>338701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>818447</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>3771703</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="図 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{748DEB82-9BCE-EC9E-A701-163E2A3D5449}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:srcRect l="67595" b="66632"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11236244" y="30151951"/>
+          <a:ext cx="5927103" cy="3433002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1279817</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>283849</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>844220</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>3770592</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="図 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07F589A7-670A-A559-CF15-0C33318B24AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:srcRect l="67595" b="66110"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11262017" y="38250499"/>
+          <a:ext cx="5927103" cy="3486743"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4680517</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>3388114</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5899717</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>3826210</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="楕円 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8EEF733-1323-4437-83EC-8402E8329300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5067379" y="49536006"/>
+          <a:ext cx="1219200" cy="438096"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3309582</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3207224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4528782</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3645320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="楕円 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{997F4009-0F44-4F66-898E-D660232EAFBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3696269" y="8552597"/>
+          <a:ext cx="1219200" cy="438096"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3309582</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2979761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4528782</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>3417857</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="楕円 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD9CA9F7-2825-49CC-80F9-0C80599D84CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3696269" y="16468298"/>
+          <a:ext cx="1219200" cy="438096"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3343702</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2809164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4562902</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3247260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="楕円 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E46CAF-DC43-46B7-A17D-7A22D633C7C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3730389" y="24440865"/>
+          <a:ext cx="1219200" cy="438096"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3411940</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>3002508</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4631140</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>3440604</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="楕円 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B64B4FA0-FB78-43A5-BFCD-C80E235A7BE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3798627" y="32777374"/>
+          <a:ext cx="1219200" cy="438096"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3423313</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2877403</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4642513</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>3315499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="楕円 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B126270-6868-49BF-B8D0-2FB3B9F904CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="40795433"/>
+          <a:ext cx="1219200" cy="438096"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1198,11 +2709,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -1217,34 +2728,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="28"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
@@ -1274,12 +2785,14 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1290,30 +2803,36 @@
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="14"/>
+      <c r="E5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F6" s="14" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1321,17 +2840,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F7" s="14" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1339,17 +2860,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F8" s="14" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1357,17 +2880,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F9" s="14" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1438,13 +2963,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -1455,40 +2980,48 @@
     <col min="4" max="4" width="35" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="33" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="31" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="28"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="26"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2" s="43"/>
+      <c r="G2" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="24"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -1504,11 +3037,15 @@
       <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="26"/>
+    </row>
+    <row r="4" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -1516,15 +3053,20 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="2"/>
       <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -1535,53 +3077,70 @@
         <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F6" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F7" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>23</v>
@@ -1589,46 +3148,61 @@
       <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F8" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F9" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G10" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>9</v>
       </c>
@@ -1637,8 +3211,9 @@
       <c r="D11" s="4"/>
       <c r="E11" s="2"/>
       <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="1:6" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="25"/>
+    </row>
+    <row r="12" spans="1:8" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>10</v>
       </c>
@@ -1647,11 +3222,12 @@
       <c r="D12" s="18"/>
       <c r="E12" s="19"/>
       <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="1:6" ht="70.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:6" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:6" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:6" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="G12" s="25"/>
+    </row>
+    <row r="13" spans="1:8" ht="70.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:8" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:8" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:8" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1667,7 +3243,239 @@
       <formula1>"OK,NG,実施不可"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G4" location="試験結果!B3" display="試験結果" xr:uid="{9DE7A561-1DE8-4B77-AAA7-0768BBD64B65}"/>
+    <hyperlink ref="G5" location="試験結果!B5" display="試験結果" xr:uid="{706B33C8-EA7A-468B-B1E1-878D4CE15170}"/>
+    <hyperlink ref="G6" location="試験結果!B7" display="試験結果" xr:uid="{9B0972AD-1AFB-471A-B94A-1078E65512D3}"/>
+    <hyperlink ref="G7" location="試験結果!B9" display="試験結果" xr:uid="{EBB6212F-DF4D-45A1-841C-7E20EAC5AA04}"/>
+    <hyperlink ref="G8" location="試験結果!B11" display="試験結果" xr:uid="{3CC758C4-1FE6-468B-AE17-17CF016F37E6}"/>
+    <hyperlink ref="G9" location="試験結果!B13" display="試験結果" xr:uid="{489A45D1-2F8F-48DA-A93A-F4029A5834F9}"/>
+    <hyperlink ref="G10" location="試験結果!B15" display="試験結果" xr:uid="{AFA8B896-AA84-457A-A3B1-A0091EE7CF45}"/>
+  </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C9CC95-AC45-4978-8A5C-0E5DF93E10DE}">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="67" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="140.109375" customWidth="1"/>
+    <col min="3" max="3" width="34.21875" customWidth="1"/>
+    <col min="4" max="4" width="49.6640625" customWidth="1"/>
+    <col min="6" max="6" width="34.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="41"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.2" x14ac:dyDescent="0.2">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="39"/>
+    </row>
+    <row r="3" spans="1:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+    </row>
+    <row r="4" spans="1:6" ht="321" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="31">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
+    </row>
+    <row r="5" spans="1:6" ht="321" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="31">
+        <v>2</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="46"/>
+    </row>
+    <row r="6" spans="1:6" ht="321" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="31">
+        <v>2</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46"/>
+    </row>
+    <row r="7" spans="1:6" ht="321" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="31">
+        <v>3</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="46"/>
+    </row>
+    <row r="8" spans="1:6" ht="321" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="31">
+        <v>3</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46"/>
+    </row>
+    <row r="9" spans="1:6" ht="321" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="31">
+        <v>4</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="46"/>
+    </row>
+    <row r="10" spans="1:6" ht="321" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="31">
+        <v>4</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="46"/>
+    </row>
+    <row r="11" spans="1:6" ht="321" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="31">
+        <v>5</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="46"/>
+    </row>
+    <row r="12" spans="1:6" ht="321" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="31">
+        <v>5</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="46"/>
+    </row>
+    <row r="13" spans="1:6" ht="321" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="31">
+        <v>6</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="46"/>
+    </row>
+    <row r="14" spans="1:6" ht="321" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="31">
+        <v>6</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="46"/>
+    </row>
+    <row r="15" spans="1:6" ht="321" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="31">
+        <v>7</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="46"/>
+    </row>
+    <row r="16" spans="1:6" ht="321" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="31">
+        <v>7</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="46"/>
+    </row>
+    <row r="17" ht="321" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="321" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="305.39999999999998" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="37" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="113.4" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>